--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_10_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_10_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48299.87462788755</v>
+        <v>9611675.050949616</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48299.87462788755</v>
+        <v>9611675.050949616</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2523.363551142821</v>
+        <v>154742.6236659966</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2523.363551142821</v>
+        <v>154742.6236659966</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265566025.63504</v>
+        <v>51531748.4232156</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10333.88346148802</v>
+        <v>1129983.902563</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20090.36806833036</v>
+        <v>2169411.231416174</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29846.19020523865</v>
+        <v>3208476.085650162</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40025.87595359213</v>
+        <v>4261012.483895384</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50135.87281305673</v>
+        <v>5299680.793251716</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60245.86967252132</v>
+        <v>6338349.102608046</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70355.8665319859</v>
+        <v>7377017.411964373</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80465.86339145049</v>
+        <v>8415685.721320698</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91106.88270714185</v>
+        <v>9445092.519404298</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101651.2426718837</v>
+        <v>10460781.06036305</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111984.3108288939</v>
+        <v>11499688.32267785</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>122018.1127232778</v>
+        <v>12524806.29206336</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132121.6035065507</v>
+        <v>13563792.35033776</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142225.0942898236</v>
+        <v>14602778.40861215</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152341.6374981309</v>
+        <v>15639399.46954077</v>
       </c>
     </row>
   </sheetData>
